--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -186,7 +186,7 @@
     <t>Social History</t>
   </si>
   <si>
-    <t>社会歴観察では、患者の職業、個人（ライフスタイルなど）、社会歴、家族歴、環境歴、および患者の健康に影響を与える可能性のある健康リスク要因を定義します。</t>
+    <t>社会歴観察では、患者の職業、個人（ライフスタイルなど）、社会歴、家族歴、環境歴、および患者の健康に影響を与える可能性のある健康リスク要因を定義。</t>
   </si>
   <si>
     <t>vital-signs</t>
@@ -213,7 +213,7 @@
     <t>Imaging</t>
   </si>
   <si>
-    <t>イメージングによって生成された観測。 範囲には、単純X線、超音波、CT、MRI、血管造影、心エコー検査、および核医学に関する観察が含まれます。</t>
+    <t>イメージングによって生成された観測。 範囲には、単純X線、超音波、CT、MRI、血管造影、心エコー検査、および核医学に関する観察が含まれる。</t>
   </si>
   <si>
     <t>laboratory</t>
@@ -222,7 +222,7 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>研究所によって生成された観察結果。 検査結果は通常、化学、血液学、血清学、組織学、細胞学、解剖病理学 (デジタル病理学を含む)、微生物学、および/またはウイルス学などの分野で分析サービスを提供する検査室によって生成されます。 これらの観察結果は、患者から採取され、検査室に提出された検体の分析に基づいています。</t>
+    <t>研究所によって生成された観察結果。 検査結果は通常、化学、血液学、血清学、組織学、細胞学、解剖病理学 (デジタル病理学を含む)、微生物学、および/またはウイルス学などの分野で分析サービスを提供する検査室によって生成される。 これらの観察結果は、患者から採取され、検査室に提出された検体の分析に基づいている。</t>
   </si>
   <si>
     <t>procedure</t>
@@ -231,7 +231,7 @@
     <t>Procedure</t>
   </si>
   <si>
-    <t>他の手順によって生成された観察。 このカテゴリには、実験室および画像検査 (心臓カテーテル法、内視鏡検査、電気診断など) を除く、介入および非介入手順から生じる観察結果が含まれます。 通常、検査結果は臨床医によって生成され、検査中に行われたコンポーネントの観察に関するより詳細な情報を提供します。 例としては、消化器内科医が大腸内視鏡検査中に観察されたポリープのサイズを報告する場合があります。</t>
+    <t>他の手順によって生成された観察。 このカテゴリには、実験室および画像検査 (心臓カテーテル法、内視鏡検査、電気診断など) を除く、介入および非介入手順から生じる観察結果が含まれる。 通常、検査結果は臨床医によって生成され、検査中に行われたコンポーネントの観察に関するより詳細な情報を提供する。 例としては、消化器内科医が大腸内視鏡検査中に観察されたポリープのサイズを報告する場合がある。</t>
   </si>
   <si>
     <t>survey</t>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -389,10 +389,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -389,10 +389,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -222,7 +222,7 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>研究所によって生成された観察結果。 検査結果は通常、化学、血液学、血清学、組織学、細胞学、解剖病理学 (デジタル病理学を含む)、微生物学、および/またはウイルス学などの分野で分析サービスを提供する検査室によって生成される。 これらの観察結果は、患者から採取され、検査室に提出された検体の分析に基づいている。</t>
+    <t>検査室によって生成された観察結果。 検査結果は通常、化学、血液学、血清学、組織学、細胞学、解剖病理学 (デジタル病理学を含む)、微生物学、および/またはウイルス学などの分野で分析サービスを提供する検査室によって生成される。 これらの観察結果は、患者から採取され、検査室に提出された検体の分析に基づいている。</t>
   </si>
   <si>
     <t>procedure</t>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
